--- a/WEB_page_bootstrap-3.3.6-dist/PSD_Web_page/Parameters.xlsx
+++ b/WEB_page_bootstrap-3.3.6-dist/PSD_Web_page/Parameters.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="206">
   <si>
     <t xml:space="preserve">Имя узла </t>
   </si>
@@ -267,12 +269,6 @@
     <t xml:space="preserve"> Загродительные огни</t>
   </si>
   <si>
-    <t xml:space="preserve">Монитор аварий </t>
-  </si>
-  <si>
-    <t>Строгость аварии</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Major</t>
   </si>
   <si>
@@ -282,18 +278,12 @@
     <t xml:space="preserve">    Warning</t>
   </si>
   <si>
-    <t>Выходное реле</t>
-  </si>
-  <si>
     <t>SDO 3</t>
   </si>
   <si>
     <t xml:space="preserve">  --</t>
   </si>
   <si>
-    <t xml:space="preserve">Монитор аварии </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Monitor 1</t>
   </si>
   <si>
@@ -324,15 +314,6 @@
     <t>Opened</t>
   </si>
   <si>
-    <t xml:space="preserve">Аварийное состояние </t>
-  </si>
-  <si>
-    <t>Авар. значение (min)</t>
-  </si>
-  <si>
-    <t>Авар. значение (max)</t>
-  </si>
-  <si>
     <t>Напряжение 220В</t>
   </si>
   <si>
@@ -436,13 +417,259 @@
   </si>
   <si>
     <t xml:space="preserve"> активно если нет питающего напряжения DC 48V (нормально: Incative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Event</t>
+  </si>
+  <si>
+    <t>t1 окружающая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Температурные датчики кондиционера</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура окружающей среды</t>
+  </si>
+  <si>
+    <t>t3 внутренняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура внутри термобокса</t>
+  </si>
+  <si>
+    <t>t4 на выходе испарителя</t>
+  </si>
+  <si>
+    <t>t5 на выходе фрикулинга (внешний контур)</t>
+  </si>
+  <si>
+    <t>t2 на входе фрикулинга (внутренний контур)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура воздушного потока на выходе фрикулинга (внешний конур)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура воздушного потока на входе фрикулинга (внутренний контур)</t>
+  </si>
+  <si>
+    <t>t6 на всасывающей трубе компрессора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 °С</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура на всасывающей трубе компрессора (холодный пар низкого давления)</t>
+  </si>
+  <si>
+    <t>t7 на сливе конденсатора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура воздушного потока на выходе радиатора испарителя (охлаждённый воздух)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура трубы на сливе радиатора конденсатора (жидкий хладогент)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 °С</t>
+  </si>
+  <si>
+    <t>t8 температура картера компрессора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> температура картера компрессора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51 °С</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Параметрирование кондиционера</t>
+  </si>
+  <si>
+    <t>t внутренняя (°С)</t>
+  </si>
+  <si>
+    <t>Δt гистерезис внутренней температуры (°С)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> гистерезис вкл/выкл компрессора (min: 0; max: 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание температуры срочного включения компрессора минуя все задержки (относительно t3) (min: 20; max: 90)</t>
+  </si>
+  <si>
+    <t>Адрес кондиционера</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание адреса кондиционера в сети ModBus</t>
+  </si>
+  <si>
+    <t>Скорость обмена</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> скорость обмена в сети ModBus</t>
+  </si>
+  <si>
+    <t>t срочного включения компрессора (°С)</t>
+  </si>
+  <si>
+    <t>t аварийно-высокая (°С)</t>
+  </si>
+  <si>
+    <t>t срочного выключения компрессора (°С)</t>
+  </si>
+  <si>
+    <t>t аварийно-низкая (°С)</t>
+  </si>
+  <si>
+    <t>Δt гистерезис аварийной температуры (°С)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> гистерезис аварийной температуры хладогента (min: 0; max: 30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание аварийной температуры хладогента на t7 (min: 30; max: 90)</t>
+  </si>
+  <si>
+    <t>Аварийная температура хладогента (°С)</t>
+  </si>
+  <si>
+    <t>t включения фрикулига</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание температуры для включения фрикулинга (относительно t1) (min: 0; max: 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Задание температуры для зоны «++»</t>
+  </si>
+  <si>
+    <t>Задание температуры для зоны «+»</t>
+  </si>
+  <si>
+    <t>Задание температуры для зоны «-»</t>
+  </si>
+  <si>
+    <t>Задание температуры для зоны «--»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Параметры связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание температуры при которой срабатывает авария кондиционера (относительно t3) (min: 20; max: 90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание температуры срочного выключения компрессора минуя все задержки (относительно t3) (min: 5; max: 30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание температуры при которой срабатывает авария кондиционера (относительно t3) (min: 5; max: 30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> задание внутренней температуры (относительно t3) (min: 10; max: 40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время зоны "++" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время зоны "+" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время зоны "-" </t>
+  </si>
+  <si>
+    <t>Задание интервала времени для зоны "++"</t>
+  </si>
+  <si>
+    <t>Задание интервала времени для зоны "+"</t>
+  </si>
+  <si>
+    <t>Задание интервала времени для зоны "-"</t>
+  </si>
+  <si>
+    <t>температура зоны "++"</t>
+  </si>
+  <si>
+    <t>температура зоны "+"</t>
+  </si>
+  <si>
+    <t>температура зоны "-"</t>
+  </si>
+  <si>
+    <t>температура зоны "--"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Настройка работы вентилятора конденсатора "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Монитор события</t>
+  </si>
+  <si>
+    <t>Строгость события</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение события </t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Вкл/Выкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение события (меньше/больше) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Монитор событий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,14 +728,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +767,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -608,19 +854,6 @@
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,11 +986,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,158 +1221,296 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,19 +1797,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="90.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="95" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
@@ -1323,12 +1818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1341,7 +1836,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1352,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>61</v>
@@ -1427,58 +1922,56 @@
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>87</v>
+      <c r="E11" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="73" t="s">
+        <v>202</v>
       </c>
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="48"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,10 +1988,10 @@
         <v>66</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="43">
         <v>10</v>
@@ -1507,7 +2000,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1524,10 +2017,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="43">
         <v>10</v>
@@ -1553,10 +2046,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="43">
         <v>15</v>
@@ -1576,16 +2069,16 @@
         <v>35</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="47">
         <v>15</v>
@@ -1614,55 +2107,55 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="48" t="s">
-        <v>87</v>
+      <c r="D20" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="48"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
@@ -1679,14 +2172,14 @@
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="73"/>
+        <v>82</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="85"/>
       <c r="I22" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1704,12 +2197,12 @@
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="73"/>
+        <v>83</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="85"/>
       <c r="I23" s="38" t="s">
         <v>41</v>
       </c>
@@ -1729,12 +2222,12 @@
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="73"/>
+        <v>84</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="85"/>
       <c r="I24" s="38" t="s">
         <v>42</v>
       </c>
@@ -1754,12 +2247,12 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="85"/>
       <c r="I25" s="47" t="s">
         <v>42</v>
       </c>
@@ -1779,12 +2272,12 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="85"/>
       <c r="I26" s="47" t="s">
         <v>43</v>
       </c>
@@ -1804,12 +2297,12 @@
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="85"/>
       <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
@@ -1829,14 +2322,14 @@
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="85"/>
       <c r="I28" s="47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,66 +2347,66 @@
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="85"/>
       <c r="I29" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="57" t="s">
-        <v>87</v>
+      <c r="D33" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="48"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -1930,14 +2423,14 @@
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="73"/>
+        <v>82</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="85"/>
       <c r="I35" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,12 +2448,12 @@
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="73"/>
+        <v>83</v>
+      </c>
+      <c r="G36" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="85"/>
       <c r="I36" s="38" t="s">
         <v>41</v>
       </c>
@@ -1980,12 +2473,12 @@
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="73"/>
+        <v>84</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="85"/>
       <c r="I37" s="38" t="s">
         <v>42</v>
       </c>
@@ -2005,12 +2498,12 @@
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="85"/>
       <c r="I38" s="47" t="s">
         <v>42</v>
       </c>
@@ -2030,12 +2523,12 @@
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G39" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="85"/>
       <c r="I39" s="47" t="s">
         <v>43</v>
       </c>
@@ -2055,12 +2548,12 @@
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G40" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="85"/>
       <c r="I40" s="47" t="s">
         <v>44</v>
       </c>
@@ -2080,14 +2573,14 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G41" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="85"/>
       <c r="I41" s="47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,43 +2598,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="73"/>
+        <v>132</v>
+      </c>
+      <c r="G42" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="85"/>
       <c r="I42" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="70" t="s">
-        <v>94</v>
+      <c r="D46" s="82" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="71"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2340,34 +2833,34 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="71"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="83"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>1</v>
       </c>
@@ -2381,7 +2874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>2</v>
       </c>
@@ -2395,7 +2888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>3</v>
       </c>
@@ -2409,7 +2902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>4</v>
       </c>
@@ -2423,60 +2916,107 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="68" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="102"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="71"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="73"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>1</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="66"/>
+      <c r="I79" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>2</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="105"/>
+      <c r="I80" s="106" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,13 +3024,24 @@
         <v>3</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="66"/>
+      <c r="I81" s="63" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,13 +3049,24 @@
         <v>4</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="E82" s="103"/>
+      <c r="F82" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="109"/>
+      <c r="I82" s="110" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2512,13 +3074,24 @@
         <v>5</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" s="99"/>
+      <c r="I83" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,13 +3099,24 @@
         <v>6</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="E84" s="103"/>
+      <c r="F84" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" s="109"/>
+      <c r="I84" s="110" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,13 +3124,24 @@
         <v>7</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H85" s="99"/>
+      <c r="I85" s="64" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,268 +3149,945 @@
         <v>8</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="103"/>
+      <c r="F86" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H86" s="109"/>
+      <c r="I86" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="102"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91" s="75"/>
+      <c r="I91" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="73"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="51">
+        <v>1</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G93" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="66"/>
+      <c r="I93" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="48">
+        <v>2</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="50" t="s">
+      <c r="E94" s="103"/>
+      <c r="F94" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94" s="105"/>
+      <c r="I94" s="106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="54">
+        <v>3</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G95" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" s="66"/>
+      <c r="I95" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="48">
+        <v>4</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
+      <c r="C96" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="103"/>
+      <c r="F96" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" s="109"/>
+      <c r="I96" s="110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="54">
+        <v>5</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="61"/>
+      <c r="F97" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G97" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="99"/>
+      <c r="I97" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="48">
+        <v>6</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="103"/>
+      <c r="F98" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="109"/>
+      <c r="I98" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="54">
+        <v>7</v>
+      </c>
+      <c r="B99" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G99" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H99" s="99"/>
+      <c r="I99" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="48">
+        <v>8</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="103"/>
+      <c r="F100" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H100" s="109"/>
+      <c r="I100" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="101"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="102"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B106" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C106" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="64" t="s">
+      <c r="D106" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G106" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H106" s="75"/>
+      <c r="I106" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="68"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="73"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="51">
+        <v>1</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G108" s="96">
+        <v>-20</v>
+      </c>
+      <c r="H108" s="96">
+        <v>50</v>
+      </c>
+      <c r="I108" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="48">
+        <v>2</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="111">
+        <v>5</v>
+      </c>
+      <c r="H109" s="111">
+        <v>38</v>
+      </c>
+      <c r="I109" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="54">
+        <v>3</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" s="96">
+        <v>5</v>
+      </c>
+      <c r="H110" s="96">
+        <v>38</v>
+      </c>
+      <c r="I110" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
+        <v>4</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" s="103"/>
+      <c r="F111" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" s="110">
+        <v>15</v>
+      </c>
+      <c r="H111" s="110">
+        <v>30</v>
+      </c>
+      <c r="I111" s="110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="54">
+        <v>5</v>
+      </c>
+      <c r="B112" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="61"/>
+      <c r="F112" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="97">
+        <v>10</v>
+      </c>
+      <c r="H112" s="97">
+        <v>40</v>
+      </c>
+      <c r="I112" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="48">
+        <v>6</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="103"/>
+      <c r="F113" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G113" s="112">
+        <v>10</v>
+      </c>
+      <c r="H113" s="112">
+        <v>40</v>
+      </c>
+      <c r="I113" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="54">
+        <v>7</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="61"/>
+      <c r="F114" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G114" s="97">
+        <v>15</v>
+      </c>
+      <c r="H114" s="97">
+        <v>30</v>
+      </c>
+      <c r="I114" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E91" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" s="52"/>
-      <c r="I91" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="48"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="83">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="48">
+        <v>8</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="103"/>
+      <c r="F115" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G115" s="112">
+        <v>15</v>
+      </c>
+      <c r="H115" s="112">
+        <v>30</v>
+      </c>
+      <c r="I115" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="101"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="102"/>
+    </row>
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D123" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="68"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="71"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="51">
         <v>1</v>
       </c>
-      <c r="B93" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" s="96"/>
-      <c r="I93" s="97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="80">
+      <c r="B125" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="113">
+        <v>22</v>
+      </c>
+      <c r="D125" s="56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="48">
         <v>2</v>
       </c>
-      <c r="B94" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="G94" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H94" s="96"/>
-      <c r="I94" s="97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="86">
+      <c r="B126" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="114">
+        <v>5</v>
+      </c>
+      <c r="D126" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="54">
         <v>3</v>
       </c>
-      <c r="B95" s="87" t="s">
+      <c r="B127" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="113">
+        <v>30</v>
+      </c>
+      <c r="D127" s="57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="48">
+        <v>4</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="114">
+        <v>40</v>
+      </c>
+      <c r="D128" s="95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="54">
+        <v>5</v>
+      </c>
+      <c r="B129" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="113">
+        <v>13</v>
+      </c>
+      <c r="D129" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="48">
+        <v>6</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="114">
+        <v>7</v>
+      </c>
+      <c r="D130" s="95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="54">
+        <v>7</v>
+      </c>
+      <c r="B131" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="113">
+        <v>60</v>
+      </c>
+      <c r="D131" s="57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="48">
+        <v>8</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="114">
+        <v>5</v>
+      </c>
+      <c r="D132" s="115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="54">
+        <v>9</v>
+      </c>
+      <c r="B133" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="113">
+        <v>15</v>
+      </c>
+      <c r="D133" s="57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="122"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="116">
+        <v>10</v>
+      </c>
+      <c r="B135" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C135" s="118">
+        <v>32</v>
+      </c>
+      <c r="D135" s="119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="48">
+        <v>11</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="114">
+        <v>30</v>
+      </c>
+      <c r="D136" s="115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="130">
+        <v>12</v>
+      </c>
+      <c r="B137" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="132">
+        <v>25</v>
+      </c>
+      <c r="D137" s="133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="126">
+        <v>13</v>
+      </c>
+      <c r="B138" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="128">
+        <v>23</v>
+      </c>
+      <c r="D138" s="129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="130">
+        <v>14</v>
+      </c>
+      <c r="B139" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="132">
+        <v>6</v>
+      </c>
+      <c r="D139" s="133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="126">
+        <v>15</v>
+      </c>
+      <c r="B140" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" s="128">
+        <v>10</v>
+      </c>
+      <c r="D140" s="133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="130">
+        <v>16</v>
+      </c>
+      <c r="B141" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" s="132">
         <v>125</v>
       </c>
-      <c r="C95" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H95" s="96"/>
-      <c r="I95" s="97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="80">
-        <v>4</v>
-      </c>
-      <c r="B96" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="93"/>
-      <c r="F96" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H96" s="96"/>
-      <c r="I96" s="98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="86">
-        <v>5</v>
-      </c>
-      <c r="B97" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="93"/>
-      <c r="F97" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G97" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" s="96"/>
-      <c r="I97" s="98" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="80">
-        <v>6</v>
-      </c>
-      <c r="B98" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="93"/>
-      <c r="F98" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G98" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H98" s="96"/>
-      <c r="I98" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="86">
-        <v>7</v>
-      </c>
-      <c r="B99" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E99" s="93"/>
-      <c r="F99" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G99" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="H99" s="96"/>
-      <c r="I99" s="98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="80">
-        <v>8</v>
-      </c>
-      <c r="B100" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="93"/>
-      <c r="F100" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="H100" s="96"/>
-      <c r="I100" s="98" t="s">
-        <v>99</v>
+      <c r="D141" s="133" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="124"/>
+      <c r="C142" s="124"/>
+      <c r="D142" s="125"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="51">
+        <v>17</v>
+      </c>
+      <c r="B143" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="120">
+        <v>1</v>
+      </c>
+      <c r="D143" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="48">
+        <v>18</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="114">
+        <v>9600</v>
+      </c>
+      <c r="D144" s="115" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="107">
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:I90"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:H92"/>
+    <mergeCell ref="I91:I92"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G99:H99"/>
     <mergeCell ref="G100:H100"/>
@@ -2824,77 +4096,622 @@
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="96">
+        <v>-20</v>
+      </c>
+      <c r="F5" s="96">
+        <v>50</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="111">
+        <v>5</v>
+      </c>
+      <c r="F6" s="111">
+        <v>38</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>3</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="96">
+        <v>5</v>
+      </c>
+      <c r="F7" s="96">
+        <v>38</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>4</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="110">
+        <v>15</v>
+      </c>
+      <c r="F8" s="110">
+        <v>30</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <v>5</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="97">
+        <v>10</v>
+      </c>
+      <c r="F9" s="97">
+        <v>40</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>6</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="112">
+        <v>10</v>
+      </c>
+      <c r="F10" s="112">
+        <v>40</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
+        <v>7</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="97">
+        <v>15</v>
+      </c>
+      <c r="F11" s="97">
+        <v>30</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>8</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="112">
+        <v>15</v>
+      </c>
+      <c r="F12" s="112">
+        <v>30</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>1</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>2</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
+        <v>3</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>4</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
+        <v>5</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>6</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
+        <v>7</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>8</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>4</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>6</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="99"/>
+      <c r="G29" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>8</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WEB_page_bootstrap-3.3.6-dist/PSD_Web_page/Parameters.xlsx
+++ b/WEB_page_bootstrap-3.3.6-dist/PSD_Web_page/Parameters.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="228">
   <si>
     <t xml:space="preserve">Имя узла </t>
   </si>
@@ -664,12 +665,78 @@
   <si>
     <t xml:space="preserve">   Монитор событий</t>
   </si>
+  <si>
+    <t xml:space="preserve">   Температурные датчики</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Параметр</t>
+  </si>
+  <si>
+    <t>Frimware version</t>
+  </si>
+  <si>
+    <t>WEB GUI version</t>
+  </si>
+  <si>
+    <t>Общее время работы</t>
+  </si>
+  <si>
+    <t>Время сессии</t>
+  </si>
+  <si>
+    <t>Дата / Время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0.0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0d 00h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0d 00h 00m</t>
+  </si>
+  <si>
+    <t>Загрузка CPU %</t>
+  </si>
+  <si>
+    <t>Использовано памяти (Mb)</t>
+  </si>
+  <si>
+    <t>Объм памяти (Mb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.00</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     TECO LTD, © 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     21.05.2016 12:53</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +808,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -780,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1110,11 +1192,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,111 +1369,215 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1386,60 +1587,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1455,29 +1602,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1488,9 +1620,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1500,16 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1799,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,12 +1938,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1922,56 +2042,56 @@
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="113" t="s">
         <v>202</v>
       </c>
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="73"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2107,55 +2227,55 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="73" t="s">
+      <c r="H20" s="115"/>
+      <c r="I20" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="73"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
@@ -2174,10 +2294,10 @@
       <c r="F22" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="131"/>
       <c r="I22" s="38" t="s">
         <v>85</v>
       </c>
@@ -2199,10 +2319,10 @@
       <c r="F23" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="38" t="s">
         <v>41</v>
       </c>
@@ -2224,10 +2344,10 @@
       <c r="F24" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="38" t="s">
         <v>42</v>
       </c>
@@ -2249,10 +2369,10 @@
       <c r="F25" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="47" t="s">
         <v>42</v>
       </c>
@@ -2274,10 +2394,10 @@
       <c r="F26" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="47" t="s">
         <v>43</v>
       </c>
@@ -2299,10 +2419,10 @@
       <c r="F27" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="85"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
@@ -2324,10 +2444,10 @@
       <c r="F28" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="47" t="s">
         <v>94</v>
       </c>
@@ -2349,64 +2469,64 @@
       <c r="F29" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G33" s="74" t="s">
+      <c r="G33" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="73" t="s">
+      <c r="H33" s="115"/>
+      <c r="I33" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="73"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="113"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -2425,10 +2545,10 @@
       <c r="F35" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="85"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="38" t="s">
         <v>85</v>
       </c>
@@ -2450,10 +2570,10 @@
       <c r="F36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="85"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="38" t="s">
         <v>41</v>
       </c>
@@ -2475,10 +2595,10 @@
       <c r="F37" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="85"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="38" t="s">
         <v>42</v>
       </c>
@@ -2500,10 +2620,10 @@
       <c r="F38" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="85"/>
+      <c r="H38" s="131"/>
       <c r="I38" s="47" t="s">
         <v>42</v>
       </c>
@@ -2525,10 +2645,10 @@
       <c r="F39" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="85"/>
+      <c r="H39" s="131"/>
       <c r="I39" s="47" t="s">
         <v>43</v>
       </c>
@@ -2550,10 +2670,10 @@
       <c r="F40" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="85"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="47" t="s">
         <v>44</v>
       </c>
@@ -2575,10 +2695,10 @@
       <c r="F41" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="G41" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="85"/>
+      <c r="H41" s="131"/>
       <c r="I41" s="47" t="s">
         <v>94</v>
       </c>
@@ -2600,41 +2720,41 @@
       <c r="F42" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="84" t="s">
+      <c r="G42" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="H42" s="85"/>
+      <c r="H42" s="131"/>
       <c r="I42" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="123" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="83"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="124"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2833,32 +2953,32 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="123" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="83"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="124"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
@@ -2917,57 +3037,57 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="100" t="s">
+      <c r="B76" s="133"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="102"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="138"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="80" t="s">
+      <c r="B77" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="82" t="s">
+      <c r="D77" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="72" t="s">
+      <c r="E77" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F77" s="73" t="s">
+      <c r="F77" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="74" t="s">
+      <c r="G77" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="H77" s="75"/>
-      <c r="I77" s="73" t="s">
+      <c r="H77" s="115"/>
+      <c r="I77" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="73"/>
+      <c r="A78" s="120"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="113"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
@@ -2986,10 +3106,10 @@
       <c r="F79" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="66"/>
+      <c r="H79" s="105"/>
       <c r="I79" s="63" t="s">
         <v>85</v>
       </c>
@@ -3007,15 +3127,15 @@
       <c r="D80" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103" t="s">
+      <c r="E80" s="68"/>
+      <c r="F80" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="104" t="s">
+      <c r="G80" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="105"/>
-      <c r="I80" s="106" t="s">
+      <c r="H80" s="107"/>
+      <c r="I80" s="69" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3036,10 +3156,10 @@
       <c r="F81" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="66"/>
+      <c r="H81" s="105"/>
       <c r="I81" s="63" t="s">
         <v>42</v>
       </c>
@@ -3057,15 +3177,15 @@
       <c r="D82" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="103"/>
-      <c r="F82" s="107" t="s">
+      <c r="E82" s="68"/>
+      <c r="F82" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G82" s="108" t="s">
+      <c r="G82" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="H82" s="109"/>
-      <c r="I82" s="110" t="s">
+      <c r="H82" s="103"/>
+      <c r="I82" s="71" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3086,10 +3206,10 @@
       <c r="F83" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G83" s="98" t="s">
+      <c r="G83" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="H83" s="99"/>
+      <c r="H83" s="101"/>
       <c r="I83" s="64" t="s">
         <v>43</v>
       </c>
@@ -3107,15 +3227,15 @@
       <c r="D84" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="103"/>
-      <c r="F84" s="107" t="s">
+      <c r="E84" s="68"/>
+      <c r="F84" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G84" s="108" t="s">
+      <c r="G84" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="H84" s="109"/>
-      <c r="I84" s="110" t="s">
+      <c r="H84" s="103"/>
+      <c r="I84" s="71" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3136,10 +3256,10 @@
       <c r="F85" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="98" t="s">
+      <c r="G85" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="H85" s="99"/>
+      <c r="H85" s="101"/>
       <c r="I85" s="64" t="s">
         <v>94</v>
       </c>
@@ -3157,70 +3277,70 @@
       <c r="D86" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="103"/>
-      <c r="F86" s="107" t="s">
+      <c r="E86" s="68"/>
+      <c r="F86" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="108" t="s">
+      <c r="G86" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="H86" s="109"/>
-      <c r="I86" s="110" t="s">
+      <c r="H86" s="103"/>
+      <c r="I86" s="71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="101"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="102"/>
-      <c r="E90" s="100" t="s">
+      <c r="B90" s="137"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
-      <c r="H90" s="101"/>
-      <c r="I90" s="102"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="138"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="70" t="s">
+      <c r="D91" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G91" s="74" t="s">
+      <c r="G91" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="H91" s="75"/>
-      <c r="I91" s="73" t="s">
+      <c r="H91" s="115"/>
+      <c r="I91" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="73"/>
+      <c r="A92" s="108"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="113"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="51">
@@ -3239,10 +3359,10 @@
       <c r="F93" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G93" s="65" t="s">
+      <c r="G93" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="H93" s="66"/>
+      <c r="H93" s="105"/>
       <c r="I93" s="63" t="s">
         <v>85</v>
       </c>
@@ -3260,15 +3380,15 @@
       <c r="D94" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103" t="s">
+      <c r="E94" s="68"/>
+      <c r="F94" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G94" s="104" t="s">
+      <c r="G94" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="105"/>
-      <c r="I94" s="106" t="s">
+      <c r="H94" s="107"/>
+      <c r="I94" s="69" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3289,10 +3409,10 @@
       <c r="F95" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="H95" s="66"/>
+      <c r="H95" s="105"/>
       <c r="I95" s="63" t="s">
         <v>42</v>
       </c>
@@ -3310,15 +3430,15 @@
       <c r="D96" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="103"/>
-      <c r="F96" s="107" t="s">
+      <c r="E96" s="68"/>
+      <c r="F96" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="108" t="s">
+      <c r="G96" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="H96" s="109"/>
-      <c r="I96" s="110" t="s">
+      <c r="H96" s="103"/>
+      <c r="I96" s="71" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3339,10 +3459,10 @@
       <c r="F97" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="98" t="s">
+      <c r="G97" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="H97" s="99"/>
+      <c r="H97" s="101"/>
       <c r="I97" s="64" t="s">
         <v>43</v>
       </c>
@@ -3360,15 +3480,15 @@
       <c r="D98" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="103"/>
-      <c r="F98" s="107" t="s">
+      <c r="E98" s="68"/>
+      <c r="F98" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G98" s="108" t="s">
+      <c r="G98" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="H98" s="109"/>
-      <c r="I98" s="110" t="s">
+      <c r="H98" s="103"/>
+      <c r="I98" s="71" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3389,10 +3509,10 @@
       <c r="F99" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G99" s="98" t="s">
+      <c r="G99" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="H99" s="99"/>
+      <c r="H99" s="101"/>
       <c r="I99" s="64" t="s">
         <v>94</v>
       </c>
@@ -3410,70 +3530,70 @@
       <c r="D100" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="103"/>
-      <c r="F100" s="107" t="s">
+      <c r="E100" s="68"/>
+      <c r="F100" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G100" s="108" t="s">
+      <c r="G100" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="109"/>
-      <c r="I100" s="110" t="s">
+      <c r="H100" s="103"/>
+      <c r="I100" s="71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="100" t="s">
+      <c r="A105" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="101"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="100" t="s">
+      <c r="B105" s="137"/>
+      <c r="C105" s="137"/>
+      <c r="D105" s="138"/>
+      <c r="E105" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
-      <c r="I105" s="102"/>
+      <c r="F105" s="137"/>
+      <c r="G105" s="137"/>
+      <c r="H105" s="137"/>
+      <c r="I105" s="138"/>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68" t="s">
+      <c r="A106" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="69" t="s">
+      <c r="B106" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C106" s="69" t="s">
+      <c r="C106" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="70" t="s">
+      <c r="D106" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="72" t="s">
+      <c r="E106" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F106" s="73" t="s">
+      <c r="F106" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G106" s="74" t="s">
+      <c r="G106" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="H106" s="75"/>
-      <c r="I106" s="73" t="s">
+      <c r="H106" s="115"/>
+      <c r="I106" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="73"/>
+      <c r="A107" s="108"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="109"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="116"/>
+      <c r="H107" s="117"/>
+      <c r="I107" s="113"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="51">
@@ -3492,10 +3612,10 @@
       <c r="F108" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G108" s="96">
+      <c r="G108" s="66">
         <v>-20</v>
       </c>
-      <c r="H108" s="96">
+      <c r="H108" s="66">
         <v>50</v>
       </c>
       <c r="I108" s="63" t="s">
@@ -3515,17 +3635,17 @@
       <c r="D109" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103" t="s">
+      <c r="E109" s="68"/>
+      <c r="F109" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G109" s="111">
+      <c r="G109" s="72">
         <v>5</v>
       </c>
-      <c r="H109" s="111">
+      <c r="H109" s="72">
         <v>38</v>
       </c>
-      <c r="I109" s="106" t="s">
+      <c r="I109" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3546,10 +3666,10 @@
       <c r="F110" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G110" s="96">
+      <c r="G110" s="66">
         <v>5</v>
       </c>
-      <c r="H110" s="96">
+      <c r="H110" s="66">
         <v>38</v>
       </c>
       <c r="I110" s="63" t="s">
@@ -3566,20 +3686,20 @@
       <c r="C111" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="95" t="s">
+      <c r="D111" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="E111" s="103"/>
-      <c r="F111" s="107" t="s">
+      <c r="E111" s="68"/>
+      <c r="F111" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="110">
+      <c r="G111" s="71">
         <v>15</v>
       </c>
-      <c r="H111" s="110">
+      <c r="H111" s="71">
         <v>30</v>
       </c>
-      <c r="I111" s="110" t="s">
+      <c r="I111" s="71" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3600,10 +3720,10 @@
       <c r="F112" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G112" s="97">
+      <c r="G112" s="67">
         <v>10</v>
       </c>
-      <c r="H112" s="97">
+      <c r="H112" s="67">
         <v>40</v>
       </c>
       <c r="I112" s="64" t="s">
@@ -3623,17 +3743,17 @@
       <c r="D113" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="103"/>
-      <c r="F113" s="107" t="s">
+      <c r="E113" s="68"/>
+      <c r="F113" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G113" s="112">
+      <c r="G113" s="73">
         <v>10</v>
       </c>
-      <c r="H113" s="112">
+      <c r="H113" s="73">
         <v>40</v>
       </c>
-      <c r="I113" s="110" t="s">
+      <c r="I113" s="71" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3654,10 +3774,10 @@
       <c r="F114" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G114" s="97">
+      <c r="G114" s="67">
         <v>15</v>
       </c>
-      <c r="H114" s="97">
+      <c r="H114" s="67">
         <v>30</v>
       </c>
       <c r="I114" s="64" t="s">
@@ -3677,47 +3797,47 @@
       <c r="D115" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="E115" s="103"/>
-      <c r="F115" s="107" t="s">
+      <c r="E115" s="68"/>
+      <c r="F115" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G115" s="112">
+      <c r="G115" s="73">
         <v>15</v>
       </c>
-      <c r="H115" s="112">
+      <c r="H115" s="73">
         <v>30</v>
       </c>
-      <c r="I115" s="110" t="s">
+      <c r="I115" s="71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="100" t="s">
+      <c r="A122" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="101"/>
-      <c r="C122" s="101"/>
-      <c r="D122" s="102"/>
+      <c r="B122" s="137"/>
+      <c r="C122" s="137"/>
+      <c r="D122" s="138"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="68" t="s">
+      <c r="A123" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="69" t="s">
+      <c r="B123" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="69" t="s">
+      <c r="C123" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="70" t="s">
+      <c r="D123" s="110" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="71"/>
+      <c r="A124" s="108"/>
+      <c r="B124" s="109"/>
+      <c r="C124" s="109"/>
+      <c r="D124" s="111"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="51">
@@ -3726,7 +3846,7 @@
       <c r="B125" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C125" s="113">
+      <c r="C125" s="74">
         <v>22</v>
       </c>
       <c r="D125" s="56" t="s">
@@ -3740,7 +3860,7 @@
       <c r="B126" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C126" s="114">
+      <c r="C126" s="75">
         <v>5</v>
       </c>
       <c r="D126" s="60" t="s">
@@ -3754,7 +3874,7 @@
       <c r="B127" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C127" s="113">
+      <c r="C127" s="74">
         <v>30</v>
       </c>
       <c r="D127" s="57" t="s">
@@ -3768,10 +3888,10 @@
       <c r="B128" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="114">
+      <c r="C128" s="75">
         <v>40</v>
       </c>
-      <c r="D128" s="95" t="s">
+      <c r="D128" s="65" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3782,7 +3902,7 @@
       <c r="B129" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C129" s="113">
+      <c r="C129" s="74">
         <v>13</v>
       </c>
       <c r="D129" s="57" t="s">
@@ -3796,10 +3916,10 @@
       <c r="B130" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="114">
+      <c r="C130" s="75">
         <v>7</v>
       </c>
-      <c r="D130" s="95" t="s">
+      <c r="D130" s="65" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3810,7 +3930,7 @@
       <c r="B131" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="113">
+      <c r="C131" s="74">
         <v>60</v>
       </c>
       <c r="D131" s="57" t="s">
@@ -3824,10 +3944,10 @@
       <c r="B132" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C132" s="114">
+      <c r="C132" s="75">
         <v>5</v>
       </c>
-      <c r="D132" s="115" t="s">
+      <c r="D132" s="76" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3838,7 +3958,7 @@
       <c r="B133" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C133" s="113">
+      <c r="C133" s="74">
         <v>15</v>
       </c>
       <c r="D133" s="57" t="s">
@@ -3846,24 +3966,24 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="121" t="s">
+      <c r="A134" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="B134" s="121"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="122"/>
+      <c r="B134" s="139"/>
+      <c r="C134" s="139"/>
+      <c r="D134" s="140"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="116">
+      <c r="A135" s="77">
         <v>10</v>
       </c>
-      <c r="B135" s="117" t="s">
+      <c r="B135" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C135" s="118">
+      <c r="C135" s="79">
         <v>32</v>
       </c>
-      <c r="D135" s="119" t="s">
+      <c r="D135" s="80" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3874,90 +3994,90 @@
       <c r="B136" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C136" s="114">
+      <c r="C136" s="75">
         <v>30</v>
       </c>
-      <c r="D136" s="115" t="s">
+      <c r="D136" s="76" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="130">
+      <c r="A137" s="86">
         <v>12</v>
       </c>
-      <c r="B137" s="131" t="s">
+      <c r="B137" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="C137" s="132">
+      <c r="C137" s="88">
         <v>25</v>
       </c>
-      <c r="D137" s="133" t="s">
+      <c r="D137" s="89" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="126">
+      <c r="A138" s="82">
         <v>13</v>
       </c>
-      <c r="B138" s="127" t="s">
+      <c r="B138" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C138" s="128">
+      <c r="C138" s="84">
         <v>23</v>
       </c>
-      <c r="D138" s="129" t="s">
+      <c r="D138" s="85" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="130">
+      <c r="A139" s="86">
         <v>14</v>
       </c>
-      <c r="B139" s="131" t="s">
+      <c r="B139" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C139" s="132">
+      <c r="C139" s="88">
         <v>6</v>
       </c>
-      <c r="D139" s="133" t="s">
+      <c r="D139" s="89" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="126">
+      <c r="A140" s="82">
         <v>15</v>
       </c>
-      <c r="B140" s="131" t="s">
+      <c r="B140" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="C140" s="128">
+      <c r="C140" s="84">
         <v>10</v>
       </c>
-      <c r="D140" s="133" t="s">
+      <c r="D140" s="89" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="130">
+      <c r="A141" s="86">
         <v>16</v>
       </c>
-      <c r="B141" s="131" t="s">
+      <c r="B141" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="C141" s="132">
+      <c r="C141" s="88">
         <v>125</v>
       </c>
-      <c r="D141" s="133" t="s">
+      <c r="D141" s="89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="123" t="s">
+      <c r="A142" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="B142" s="124"/>
-      <c r="C142" s="124"/>
-      <c r="D142" s="125"/>
+      <c r="B142" s="142"/>
+      <c r="C142" s="142"/>
+      <c r="D142" s="143"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="51">
@@ -3966,7 +4086,7 @@
       <c r="B143" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C143" s="120">
+      <c r="C143" s="81">
         <v>1</v>
       </c>
       <c r="D143" s="56" t="s">
@@ -3980,16 +4100,16 @@
       <c r="B144" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C144" s="114">
+      <c r="C144" s="75">
         <v>9600</v>
       </c>
-      <c r="D144" s="115" t="s">
+      <c r="D144" s="76" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="A134:D134"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="G85:H85"/>
@@ -4011,24 +4131,6 @@
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="D106:D107"/>
     <mergeCell ref="E106:E107"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -4038,10 +4140,21 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="G20:H21"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
@@ -4062,12 +4175,12 @@
     <mergeCell ref="G33:H34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="G98:H98"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
@@ -4077,9 +4190,25 @@
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
@@ -4087,15 +4216,6 @@
     <mergeCell ref="E91:E92"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="G91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4104,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,76 +4241,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="113" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="A4" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>1</v>
       </c>
       <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
-        <v>133</v>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="66">
         <v>-20</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="66">
         <v>50</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4198,20 +4318,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="72">
         <v>5</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="72">
         <v>38</v>
       </c>
-      <c r="G6" s="106" t="s">
-        <v>47</v>
+      <c r="G6" s="69" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,20 +4339,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
-        <v>136</v>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="66">
         <v>5</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="66">
         <v>38</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4240,430 +4360,346 @@
         <v>4</v>
       </c>
       <c r="B8" s="48"/>
-      <c r="C8" s="141" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="107" t="s">
+      <c r="C8" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="71">
         <v>15</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="71">
         <v>30</v>
       </c>
-      <c r="G8" s="110" t="s">
-        <v>42</v>
+      <c r="G8" s="71" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>1</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>2</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="107"/>
+      <c r="G11" s="69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>3</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>4</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="103"/>
+      <c r="G13" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>5</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="142" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="97">
-        <v>10</v>
-      </c>
-      <c r="F9" s="97">
-        <v>40</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
-        <v>6</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="112">
-        <v>10</v>
-      </c>
-      <c r="F10" s="112">
-        <v>40</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
-        <v>7</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="97">
-        <v>15</v>
-      </c>
-      <c r="F11" s="97">
-        <v>30</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
-        <v>8</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="112">
-        <v>15</v>
-      </c>
-      <c r="F12" s="112">
-        <v>30</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
-        <v>1</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="63" t="s">
-        <v>85</v>
+      <c r="F14" s="101"/>
+      <c r="G14" s="67" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
-        <v>2</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106" t="s">
-        <v>41</v>
+      <c r="F15" s="103"/>
+      <c r="G15" s="73" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
-        <v>3</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="63" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="67" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
+        <v>8</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="105"/>
+      <c r="G19" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="107"/>
+      <c r="G20" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="105"/>
+      <c r="G21" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="141" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="107" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110" t="s">
+      <c r="E22" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="145"/>
+      <c r="G22" s="72" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
-        <v>5</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
-        <v>6</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="141" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
-        <v>7</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
-        <v>8</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="141" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="63" t="s">
-        <v>85</v>
+      <c r="C23" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="101"/>
+      <c r="G23" s="64" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106" t="s">
-        <v>41</v>
+      <c r="C24" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="71" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="63" t="s">
-        <v>42</v>
+      <c r="C25" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="101"/>
+      <c r="G25" s="64" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="107" t="s">
+      <c r="C26" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>5</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>7</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="144" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
-        <v>8</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110" t="s">
-        <v>95</v>
+      <c r="E26" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="103"/>
+      <c r="G26" s="71" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4671,47 +4707,424 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="E2:F3"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="99">
+        <v>2</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="99">
+        <v>3</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="99">
+        <v>4</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="99">
+        <v>5</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
+        <v>6</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="99">
+        <v>7</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
+        <v>8</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
+        <v>9</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>10</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="99">
+        <v>11</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
+        <v>12</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="99">
+        <v>13</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="99">
+        <v>14</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="99">
+        <v>15</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="99">
+        <v>16</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="99">
+        <v>17</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="99">
+        <v>18</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
+        <v>19</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="99">
+        <v>20</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="99">
+        <v>21</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="99">
+        <v>22</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="99">
+        <v>23</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="99">
+        <v>24</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="99">
+        <v>25</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="99">
+        <v>26</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="99">
+        <v>27</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="99">
+        <v>28</v>
+      </c>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="99">
+        <v>29</v>
+      </c>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="99">
+        <v>30</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="99">
+        <v>31</v>
+      </c>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="99">
+        <v>32</v>
+      </c>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="99">
+        <v>33</v>
+      </c>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="99">
+        <v>34</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="99">
+        <v>35</v>
+      </c>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="99">
+        <v>36</v>
+      </c>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="99">
+        <v>37</v>
+      </c>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="99">
+        <v>38</v>
+      </c>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="153" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>